--- a/src/test/resources/yo/dbunitcli/application/generate/table/template.xlsx
+++ b/src/test/resources/yo/dbunitcli/application/generate/table/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\IdeaProjects\dbunitcli\src\test\resources\yo\dbunitcli\application\generate\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ED61BC-2ADD-4E97-B1F0-6158B56A854A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51400084-F85D-453F-B4E7-1F77BDBD8110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7B803291-073F-4E8C-B81C-41D8CC125007}"/>
   </bookViews>
@@ -87,8 +87,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>クラス名</t>
     <rPh sb="3" eb="4">
@@ -157,12 +179,16 @@
     <t>コメント(参照)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>${row.name}</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +203,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -257,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,6 +290,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,14 +643,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -636,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.5" thickBot="1">
+    <row r="3" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -647,7 +669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.5" thickTop="1">
+    <row r="4" spans="1:3" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -670,9 +692,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C90B858-4055-43FE-93EE-F3461E9CFF5F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
@@ -682,7 +706,7 @@
     <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -690,7 +714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.5" thickBot="1">
+    <row r="3" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -710,21 +734,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.5" thickTop="1">
-      <c r="A4" s="3" t="str">
-        <f>シート1!A4</f>
+    <row r="4" spans="1:6" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="str" cm="1">
+        <f t="array" aca="1" ref="A4" ca="1">INDIRECT("シート1!"&amp;"A4")</f>
         <v>${row.name}</v>
       </c>
-      <c r="B4" s="3" t="str">
-        <f>シート1!B4</f>
+      <c r="B4" s="3" t="str" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">INDIRECT("シート1!"&amp;"B4")</f>
         <v>${row.dataType}</v>
       </c>
-      <c r="C4" s="3" t="str">
-        <f>シート1!C4</f>
+      <c r="C4" s="3" t="str" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT("シート1!"&amp;"C4")</f>
         <v>${row.comment}</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
